--- a/data/trans_camb/P12B1_1_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P12B1_1_R-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-7,92</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-6,77</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-10,05</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-6,41</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-6,97</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,48</t>
+          <t>-0,98</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-0,94</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-0,45</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-0,09</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-54,47; 45,98</t>
+          <t>-3,13; 2,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-54,1; 49,19</t>
+          <t>-3,14; 2,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-24,95; 4,53</t>
+          <t>-1,89; 4,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-22,41; 8,48</t>
+          <t>-3,86; -0,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-35,59; 21,84</t>
+          <t>-2,64; 1,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-29,63; 37,63</t>
+          <t>-3,28; 0,31</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-2,4; 0,4</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-2,13; 1,01</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-1,63; 1,76</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-17,87%</t>
+          <t>-27,09%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-15,27%</t>
+          <t>-25,99%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-72,04%</t>
+          <t>52,42%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-45,93%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-25,35%</t>
+          <t>-35,48%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-9,03%</t>
+          <t>-71,5%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-62,75%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-30,14%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-5,73%</t>
         </is>
       </c>
     </row>
@@ -715,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 457,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -735,12 +811,27 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-93,77; 174,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-88,17; 343,8</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 294,24</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-86,77; 190,68</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-77,41; 275,83</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,35</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,32</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,45</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,71</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,37</t>
+          <t>1,31</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-0,38</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,9</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,98; 33,33</t>
+          <t>-1,77; 2,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-21,23; 11,44</t>
+          <t>-2,69; 2,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,68; 25,9</t>
+          <t>-1,91; 2,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-15,72; 10,56</t>
+          <t>-1,82; 4,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 21,43</t>
+          <t>-3,5; 0,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,73; 7,49</t>
+          <t>-1,32; 4,22</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-1,16; 2,65</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-2,03; 1,02</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-0,92; 2,84</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>112,01%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-18,63%</t>
+          <t>-9,19%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>84,31%</t>
+          <t>58,46%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-19,35%</t>
+          <t>75,78%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>93,95%</t>
+          <t>-55,3%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-19,2%</t>
+          <t>110,18%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>46,1%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-37,19%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>87,03%</t>
         </is>
       </c>
     </row>
@@ -891,12 +1027,27 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-70,81; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
           <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-75,86; 819,24</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>48,09</t>
+          <t>21,34</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>41,78</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>25,62</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>44,72</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>14,23</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>10,54</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>13,6</t>
         </is>
       </c>
     </row>
@@ -951,17 +1117,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 91,4</t>
+          <t>0,0; 63,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 66,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -971,12 +1137,27 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 91,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 62,31</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 34,31</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 47,24</t>
         </is>
       </c>
     </row>
@@ -994,25 +1175,40 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
@@ -1055,6 +1251,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>10,78</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,05</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,27</t>
+          <t>3,53</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-4,12</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,01</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0,8</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-0,37</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1,74</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-26,89; 41,46</t>
+          <t>-0,82; 10,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-28,22; 40,98</t>
+          <t>-1,91; 1,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-12,49; 10,96</t>
+          <t>0,05; 14,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-14,73; 6,03</t>
+          <t>-1,78; 1,09</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-14,26; 25,51</t>
+          <t>-1,96; 0,58</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-15,82; 23,42</t>
+          <t>-1,46; 1,38</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-0,65; 5,19</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-1,31; 0,72</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-0,01; 7,68</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>48,49%</t>
+          <t>179,46%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>18,22%</t>
+          <t>-20,54%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-12,51%</t>
+          <t>310,7%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-40,46%</t>
+          <t>-27,64%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>38,41%</t>
+          <t>-43,84%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>1,41%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>69,87%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-32,6%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>151,34%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-92,83; 537,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-94,21; 473,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-84,25; 234,45</t>
+          <t>-37,13; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-88,43; 179,24</t>
+          <t>-100,0; 269,64</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-68,5; 288,68</t>
+          <t>-100,0; 180,48</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-76,02; 278,87</t>
+          <t>-71,89; 333,51</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-51,08; 725,01</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-82,04; 146,01</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-11,1; 975,31</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
